--- a/biology/Botanique/Foire_aux_vins_d'Alsace/Foire_aux_vins_d'Alsace.xlsx
+++ b/biology/Botanique/Foire_aux_vins_d'Alsace/Foire_aux_vins_d'Alsace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Foire_aux_vins_d%27Alsace</t>
+          <t>Foire_aux_vins_d'Alsace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La foire aux vins d'Alsace est une manifestation qui se tient chaque année durant 10 jours les deux derniers week end de juillet au Parc des Expositions de Colmar mêlant foire commerciale, vitrine des vins d'Alsace et festival musical éclectique.
 La Foire a accueilli depuis ses débuts bon nombre d'artistes nationaux et internationaux.
-Elle est la troisième foire commerciale de France derrière Paris et Marseille[1].
+Elle est la troisième foire commerciale de France derrière Paris et Marseille.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Foire_aux_vins_d%27Alsace</t>
+          <t>Foire_aux_vins_d'Alsace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créée en 1948 sous le nom de Foire Régionale des Vins d’Alsace, l'événement devient Foire aux Vins d'Alsace à la fin des années 1950 lorsqu'une programmation musicale se joint à la manifestation[2].
-La foire commerciale accueille 350 exposants répartis sur 43 000m2 dans les domaines de l'artisanat du monde, la gastronomie, la mode, l'automobile ou encore de la décoration, en plus du vin. Diverses conférences et animations ponctuent l'événement[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 1948 sous le nom de Foire Régionale des Vins d’Alsace, l'événement devient Foire aux Vins d'Alsace à la fin des années 1950 lorsqu'une programmation musicale se joint à la manifestation.
+La foire commerciale accueille 350 exposants répartis sur 43 000m2 dans les domaines de l'artisanat du monde, la gastronomie, la mode, l'automobile ou encore de la décoration, en plus du vin. Diverses conférences et animations ponctuent l'événement.
 Le festival de musique propose des concerts chaque soir sur la scène de La Coquille.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Foire_aux_vins_d%27Alsace</t>
+          <t>Foire_aux_vins_d'Alsace</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,18 +561,20 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1927 - première édition de la « Foire Régionale des Vins d’Alsace »[4].
-1948 - première édition de la « Foire aux vins d'Alsace »[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1927 - première édition de la « Foire Régionale des Vins d’Alsace ».
+1948 - première édition de la « Foire aux vins d'Alsace ».
 1957 - Les premiers grands noms de la chanson viennent à Colmar, et peu à peu le festival se greffe à la Foire aux vins.
-1968 - Pour des raisons d'organisation et de sécurité, la foire quitte le centre-ville pour occuper le Parc des Expositions, situé au nord de la ville[6], passant ainsi de 160 000 à 211 000 visteurs[4].
+1968 - Pour des raisons d'organisation et de sécurité, la foire quitte le centre-ville pour occuper le Parc des Expositions, situé au nord de la ville, passant ainsi de 160 000 à 211 000 visteurs.
 1979 - Un gigantesque incendie ravage presque l'ensemble du Parc des Expositions en pleine foire. L'incendie a eu lieu la nuit et aucun blessé n'a été à déplorer.
 2000 - Inauguration du nouveau théâtre de plein-air (surnommé « La coquille ») où ont lieu les concerts lors mais aussi en dehors de la Foire aux vins. D'une capacité de 9 990 personnes, il s'inspire du Hollywood Bowl de Los Angeles.
 2007 - La Foire aux vins fête sa 60e édition.
 2009 - Le théâtre de plein air se voit désormais entièrement couvert par deux toiles de part et d'autre du toit existant.
 2017 - La Foire aux vins fête sa 70e édition.
-2020-2021 - La Foire aux vins est contrainte d’annuler ses 72e édition et 73e édition à cause de la pandémie de Covid-19 en France[7].</t>
+2020-2021 - La Foire aux vins est contrainte d’annuler ses 72e édition et 73e édition à cause de la pandémie de Covid-19 en France.</t>
         </is>
       </c>
     </row>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Foire_aux_vins_d%27Alsace</t>
+          <t>Foire_aux_vins_d'Alsace</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,6 +603,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Foire_aux_vins_d%27Alsace</t>
+          <t>Foire_aux_vins_d'Alsace</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Budget</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le budget pour la programmation musicale est de quatre millions d'euros[1] et le festival ne reçoit aucune subvention[16].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le budget pour la programmation musicale est de quatre millions d'euros et le festival ne reçoit aucune subvention.
 </t>
         </is>
       </c>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Foire_aux_vins_d%27Alsace</t>
+          <t>Foire_aux_vins_d'Alsace</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,14 +663,51 @@
           <t>Programmation musicale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1958 à 1973, la programmation est assurée par Johnny Stark[8] puis par Claude Lebourgeois, directeur artistique de la Foire depuis 1989.
-À partir de 2010, une soirée est consacrée au Heavy metal sous le nom des Hard Rock Session[17] ainsi qu'une soirée programmant des DJs jusque 4h du matin nommée Nuit Blanche[18].
-Parmi les artistes francophones venus au festival, on peut trouver Mireille Mathieu, Claude François, Joe Dassin[8], Jacques Brel, Raymond Devos, Claude François, Léo Ferré, Coluche,  Michel Sardou, Thierry Le Luron, Patrick Juvet et pour les artistes internationaux, Enrico Macias, Joséphine Baker[8], Ray Charles, Pink Floyd, The Who, James Brown, Ike et Tina Turner ou encore Dizzy Gillepsie[2].
-Johnny Hallyday est venu douze fois et Indochine huit fois[8].
-Édition 2023
-28 juillet : Claudio Capeo, Zazie et Pierre de Maere
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1958 à 1973, la programmation est assurée par Johnny Stark puis par Claude Lebourgeois, directeur artistique de la Foire depuis 1989.
+À partir de 2010, une soirée est consacrée au Heavy metal sous le nom des Hard Rock Session ainsi qu'une soirée programmant des DJs jusque 4h du matin nommée Nuit Blanche.
+Parmi les artistes francophones venus au festival, on peut trouver Mireille Mathieu, Claude François, Joe Dassin, Jacques Brel, Raymond Devos, Claude François, Léo Ferré, Coluche,  Michel Sardou, Thierry Le Luron, Patrick Juvet et pour les artistes internationaux, Enrico Macias, Joséphine Baker, Ray Charles, Pink Floyd, The Who, James Brown, Ike et Tina Turner ou encore Dizzy Gillepsie.
+Johnny Hallyday est venu douze fois et Indochine huit fois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Édition 2023</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>28 juillet : Claudio Capeo, Zazie et Pierre de Maere
 29 juillet : Soprano
 30 juillet : Florent Pagny
 31 juillet : The Jacksons et Earth Wind &amp; Fire experience by Al McKay
@@ -659,16 +716,84 @@
 3 août : Louise Attaque et Izïa
 4 août : Shaka Ponk et Matmatah
 5 août : Aldebert et soirée Nuit blanche
-6 août : Kev Adams, Gérémy Credeville et Hakim Jemili
-Édition 2020
-Pour la première fois, l'édition 2020 a été annulée à cause du Covid-19. Elle était programmée du 24 juillet au 2 août. L'édition est donc décalée du 23 juillet au 1er août 2021. Les artistes qui auraient dû être présents sont :
+6 août : Kev Adams, Gérémy Credeville et Hakim Jemili</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Édition 2020</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pour la première fois, l'édition 2020 a été annulée à cause du Covid-19. Elle était programmée du 24 juillet au 2 août. L'édition est donc décalée du 23 juillet au 1er août 2021. Les artistes qui auraient dû être présents sont :
 24 juillet - Deep Purple
 25 juillet - Claudio Capéo et Mika (chanteur)
 28 juillet - Roméo Elvis et Therapie Taxi
 29 juillet - Angèle (chanteuse) et Tsew The Kid
-1er août - Jean-Baptiste Guégan
-Édition 2019
-La 72e édition a lieu du 26 juillet au 4 août[19].
+1er août - Jean-Baptiste Guégan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Édition 2019</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La 72e édition a lieu du 26 juillet au 4 août.
 26 juillet - Bigflo et Oli et Berywam
 27 juillet - Matthieu Chedid
 28 juillet - Soprano
@@ -679,9 +804,43 @@
 2 août - Supertramp, Murray Head et Cock Robin
 3 août - Aldebert
 3 août - Nuit blanche avec Morgan Nagoya, The Prince Karma, Lost Frequencies et Dimitri Vegas &amp; Like Mike, EDX
-4 août - Patrick Bruel
-Édition 2018
-La 71e édition a lieu du 27 juillet au 5 août[20].
+4 août - Patrick Bruel</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Édition 2018</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La 71e édition a lieu du 27 juillet au 5 août.
 27 juillet : Indochine (guichet fermé)
 28 juillet :
 Jamel Debbouze
@@ -697,10 +856,44 @@
 4 août :
 Kids United &amp; friends
 Nuit blanche avec Martin Solveig, Kungs, Ofenbach, Sound of Legend
-5 août : Hard Rock Session IX avec Ghost, Powerwolf, Doro, H.E.A.T
-Édition 2017
-La 70e édition a lieu du 27 juillet au 6 août.
-Quelques artistes présents[13] :
+5 août : Hard Rock Session IX avec Ghost, Powerwolf, Doro, H.E.A.T</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Édition 2017</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La 70e édition a lieu du 27 juillet au 6 août.
+Quelques artistes présents :
 27 juillet :
 Les Vieilles Canailles (concert dans la Halle aux Vins)
 M. Pokora
@@ -712,22 +905,90 @@
 1er août : Les Insus (guichets fermés)
 2 août : LP
 3 août : Gims
-6 août : Hard Rock Session VIII
-Édition 2016
-La 69e édition a lieu du 5 au 15 août[12],[21],[22].
+6 août : Hard Rock Session VIII</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Édition 2016</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>La 69e édition a lieu du 5 au 15 août.
 5 août : Pete Doherty
 6 août : Les Insus (guichets fermés)
-7 août[23] : Vianney, Joseph Salvat, Hyphen Hyphen, Jain
+7 août : Vianney, Joseph Salvat, Hyphen Hyphen, Jain
 8 août : Manu Chao
 9 août : Claudio Capéo, Laurent Voulzy, Alain Souchon
 10 août : Hard Rock Session VII avec Mass Hysteria, Arch Enemy, Slayer, Limp Bizkit
 11 août : LEJ, Louane
 12 août : The Cranberries, Amy Macdonald
-13 août[24] : Nuit blanche avec Robin Schulz, Feder, Showtek, Kungs, Big Ali, Richard Orlinski, Antoine Davila
+13 août : Nuit blanche avec Robin Schulz, Feder, Showtek, Kungs, Big Ali, Richard Orlinski, Antoine Davila
 14 août : Pascal Obispo, Cœur de pirate
-15 août : The Avener, Fréro Delavega
-Édition 2015
-La 68e édition a lieu du 7 au 16 août[25].
+15 août : The Avener, Fréro Delavega</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Édition 2015</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>La 68e édition a lieu du 7 au 16 août.
 7 août - Charles Aznavour
 8 août : Marina Kaye, Lilly Wood and the Prick, Selah Sue
 9 août : David Guetta
@@ -738,9 +999,43 @@
 14 août : M. Pokora, Laura Chab'
 14 août : Nuit blanche avec Steve Aoki, AronChupa
 15 août : Florence Foresti
-16 août : Black M, Soprano
-Édition 2014
-La 67e édition a lieu du 8 au 17 août[26].
+16 août : Black M, Soprano</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Édition 2014</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>La 67e édition a lieu du 8 au 17 août.
 8 août - Neil Young and Crazy Horse
 9 août - Indochine
 10 août - Hard Rock Session V avec Motörhead, Tarja Turunen, Airbourne, Black Rain
@@ -751,11 +1046,80 @@
 15 août - Gad Elmaleh
 16 août - Plaza Francia, Bernard Lavilliers
 16 août - Nuit blanche avec Martin Garrix, DJ Rebel, Jay Hardway, DJ Chuckie, The Jillionaire, New World Sound &amp; Thomas Newson
-17 août -  Shaka Ponk, Les Casseurs Flowters
-Édition 2013
-La 66e édition a lieu du 9 au 18 août.
-Édition 2012
-Pour la 65e édition de la Foire aux Vins d’Alsace, de nouvelles dates sont mises en place. L’événement a lieu du samedi 4 au mercredi 8 août 2012, puis du vendredi 10 au mercredi 15 août, avec une journée off fixée le jeudi 9 août. Cette formule se pratique pour la toute première fois et permet un temps de pause aux 3 000 personnes mobilisées pour cette manifestation.
+17 août -  Shaka Ponk, Les Casseurs Flowters</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Édition 2013</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 66e édition a lieu du 9 au 18 août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Édition 2012</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Pour la 65e édition de la Foire aux Vins d’Alsace, de nouvelles dates sont mises en place. L’événement a lieu du samedi 4 au mercredi 8 août 2012, puis du vendredi 10 au mercredi 15 août, avec une journée off fixée le jeudi 9 août. Cette formule se pratique pour la toute première fois et permet un temps de pause aux 3 000 personnes mobilisées pour cette manifestation.
 3 août - Amandine Bourgeois  et Johnny Hallyday assurent l'ouverture de cette 65e édition. Le 2 mars, le concert affiche complet.
 4 août - M. Pokora et Shy'm
 5 août - Hard Rock Session III avec Lonewolf, Nightmare, Epica, Within Temptation et Nightwish
@@ -767,29 +1131,413 @@
 12 août - Bénabar, The Pogues
 13 août - Orelsan, Sean Paul
 14 août - Kassav, Michel Teló
-15 août - Moriarty, Gossip
-Édition 2011
-Claudio Capéo, Yannick Noah[21]Hard Rock Session : Judas Priest, Sepultura, Apocalyptica, Stratovarius, Karelia[8]
-Édition 2010
-The Cranberries[12]Nuit blanche : David Guetta, Martin Solveig, Bob Sinclar[8]
-Édition 2009
-Amy Macdonald[21]
-Édition 2005
-Calogero, Vincent Eckert[28].
-Édition 1999
-6-15 aoûtNoa, Zazie, Manau, Matmatah, Pierpoljak, Faudel[29]...
-Édition 1991
-Johnny Hallyday[8]
-Édition 1984
-Indochine[8]
-Édition 1974
-Serge Lama[8]
-Édition 1968[8]
-Johnny Hallyday, Gilbert Bécaud, The Moody Blues, Nicoletta, Virginia Vee, Roger Pierre et Jean-Marc Thibault, Herbert Léonard, Pascal Danel, Peter Holm, Alain Barrière, Danielle Darrieux, Dagenham Girl Pipers (en), Jean-Pierre Ferland, Michel Delpech, Georgette Plana, Marie Laforêt, Les Guaranis, Les Sunlights, Barbara, Raymond Devos, Régine, Isabelle Aubret, Manitas de Plata, Claude Besset, Sylvie Vartan, Jean Donda, Johnny Stark
-Édition 1961
-Johnny Hallyday[8]
-Édition 1958
-Luis Mariano, Dalida, Jean Yanne[8]
+15 août - Moriarty, Gossip</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Édition 2011</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claudio Capéo, Yannick NoahHard Rock Session : Judas Priest, Sepultura, Apocalyptica, Stratovarius, Karelia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Édition 2010</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The CranberriesNuit blanche : David Guetta, Martin Solveig, Bob Sinclar
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Édition 2009</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amy Macdonald
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Édition 2005</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calogero, Vincent Eckert.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Édition 1999</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6-15 aoûtNoa, Zazie, Manau, Matmatah, Pierpoljak, Faudel...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Édition 1991</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johnny Hallyday
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Édition 1984</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indochine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Édition 1974</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Lama
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Édition 1968[8]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johnny Hallyday, Gilbert Bécaud, The Moody Blues, Nicoletta, Virginia Vee, Roger Pierre et Jean-Marc Thibault, Herbert Léonard, Pascal Danel, Peter Holm, Alain Barrière, Danielle Darrieux, Dagenham Girl Pipers (en), Jean-Pierre Ferland, Michel Delpech, Georgette Plana, Marie Laforêt, Les Guaranis, Les Sunlights, Barbara, Raymond Devos, Régine, Isabelle Aubret, Manitas de Plata, Claude Besset, Sylvie Vartan, Jean Donda, Johnny Stark
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Édition 1961</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johnny Hallyday
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Foire_aux_vins_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foire_aux_vins_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Programmation musicale</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Édition 1958</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luis Mariano, Dalida, Jean Yanne
 </t>
         </is>
       </c>
